--- a/part2/all_stats/CMU.xlsx
+++ b/part2/all_stats/CMU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\code\security_lab5\part2\all_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7D4E8-15D9-4ECD-A78C-450472C057DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85762068-3C6A-402A-87EA-0D54D62807BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7770" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="61">
-  <si>
-    <t>files</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="62">
   <si>
     <t>level</t>
   </si>
@@ -199,26 +196,32 @@
     <t>BOR Count</t>
   </si>
   <si>
-    <t>BOR Avg</t>
-  </si>
-  <si>
     <t>VPN Count</t>
-  </si>
-  <si>
-    <t>VPN Avg</t>
   </si>
   <si>
     <t>TOR Count</t>
   </si>
   <si>
-    <t>TOR Avg</t>
+    <t>Connection-site</t>
+  </si>
+  <si>
+    <t>connection-Site</t>
+  </si>
+  <si>
+    <t>BOR Avg Packet Lenght</t>
+  </si>
+  <si>
+    <t>VPN Avg Packet Length</t>
+  </si>
+  <si>
+    <t>TOR Avg Packet Length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -226,8 +229,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +261,32 @@
         <bgColor rgb="FF65C295"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,11 +294,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -275,6 +323,14 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +404,11 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF99FF66"/>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -379,7 +440,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Packets Sent Count</a:t>
@@ -438,7 +499,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -527,7 +588,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -616,7 +677,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -678,6 +739,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
         <c:axId val="35774502"/>
         <c:axId val="3184016"/>
       </c:barChart>
@@ -821,13 +883,23 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7963327953928011E-2"/>
+          <c:y val="0.91341464796713401"/>
+          <c:w val="0.48696069815986215"/>
+          <c:h val="6.1397648392123527E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -857,7 +929,9 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -887,10 +961,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Average Packet Length</a:t>
+              <a:t>Average Packet Size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -914,15 +988,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>graphs!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BOR Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>BRO Avg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -934,6 +1000,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -946,7 +1013,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1003,15 +1070,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>graphs!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VPN Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>VPN Avg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1023,6 +1082,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1035,7 +1095,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1092,15 +1152,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>graphs!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOR Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>TOR Avg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1112,6 +1164,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1124,7 +1177,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1186,6 +1239,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
         <c:axId val="30159435"/>
         <c:axId val="34635019"/>
       </c:barChart>
@@ -1329,13 +1383,23 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0796337493193705E-2"/>
+          <c:y val="0.91220871327254305"/>
+          <c:w val="0.41557893662744311"/>
+          <c:h val="5.747571837022656E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1365,7 +1429,9 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -1380,14 +1446,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>802440</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2340</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>596880</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
@@ -1416,14 +1482,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>802440</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2340</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>596880</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -1752,13 +1818,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L331"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L321" sqref="L321"/>
+    <sheetView topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
@@ -1768,59 +1834,59 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>1216</v>
@@ -1852,22 +1918,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1876,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1887,22 +1953,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1911,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1922,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>670</v>
@@ -1957,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>118</v>
@@ -1992,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>56</v>
@@ -2027,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>88</v>
@@ -2062,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>37</v>
@@ -2097,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>24</v>
@@ -2132,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>61</v>
@@ -2167,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>162</v>
@@ -2199,14 +2265,14 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2">
         <v>584</v>
@@ -2238,22 +2304,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2262,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2273,22 +2339,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2297,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>342</v>
@@ -2343,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>85</v>
@@ -2378,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>47</v>
@@ -2413,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>44</v>
@@ -2448,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>23</v>
@@ -2483,10 +2549,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -2518,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -2553,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -2585,14 +2651,14 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
         <v>1146</v>
@@ -2624,22 +2690,22 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2648,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2659,22 +2725,22 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2683,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2694,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>658</v>
@@ -2729,10 +2795,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>164</v>
@@ -2764,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>41</v>
@@ -2799,10 +2865,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>32</v>
@@ -2834,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>42</v>
@@ -2869,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>12</v>
@@ -2904,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>49</v>
@@ -2939,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>148</v>
@@ -2971,14 +3037,14 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2">
         <v>937</v>
@@ -3010,22 +3076,22 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3034,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3045,22 +3111,22 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3069,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3080,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>480</v>
@@ -3115,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>126</v>
@@ -3150,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>47</v>
@@ -3185,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>36</v>
@@ -3220,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>42</v>
@@ -3255,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>15</v>
@@ -3290,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>47</v>
@@ -3325,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>144</v>
@@ -3357,14 +3423,14 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2">
         <v>958</v>
@@ -3396,22 +3462,22 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3420,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3431,22 +3497,22 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3455,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3466,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>497</v>
@@ -3501,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>134</v>
@@ -3536,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>39</v>
@@ -3571,10 +3637,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>34</v>
@@ -3606,10 +3672,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>39</v>
@@ -3641,10 +3707,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <v>39</v>
@@ -3676,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>33</v>
@@ -3711,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>143</v>
@@ -3743,14 +3809,14 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" s="2">
         <v>1280</v>
@@ -3782,22 +3848,22 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
         <v>14</v>
       </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3806,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3817,22 +3883,22 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3841,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3852,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>659</v>
@@ -3887,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>181</v>
@@ -3922,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>81</v>
@@ -3957,10 +4023,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>63</v>
@@ -3992,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>65</v>
@@ -4027,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>25</v>
@@ -4062,10 +4128,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>55</v>
@@ -4097,10 +4163,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>151</v>
@@ -4129,14 +4195,14 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2">
         <v>1155</v>
@@ -4168,22 +4234,22 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4192,10 +4258,10 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4203,22 +4269,22 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4227,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4238,10 +4304,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>616</v>
@@ -4273,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>157</v>
@@ -4308,10 +4374,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>56</v>
@@ -4343,10 +4409,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>45</v>
@@ -4378,10 +4444,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75">
         <v>52</v>
@@ -4413,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E76">
         <v>31</v>
@@ -4448,10 +4514,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>41</v>
@@ -4483,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78">
         <v>157</v>
@@ -4515,14 +4581,14 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" s="2">
         <v>1160</v>
@@ -4554,22 +4620,22 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
         <v>14</v>
       </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4578,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4589,22 +4655,22 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4613,10 +4679,10 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -4624,10 +4690,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>593</v>
@@ -4659,10 +4725,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>173</v>
@@ -4694,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>64</v>
@@ -4729,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>42</v>
@@ -4764,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86">
         <v>53</v>
@@ -4799,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87">
         <v>26</v>
@@ -4834,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88">
         <v>43</v>
@@ -4869,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89">
         <v>166</v>
@@ -4901,14 +4967,14 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" s="2">
         <v>1038</v>
@@ -4940,22 +5006,22 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
         <v>14</v>
       </c>
-      <c r="D91" t="s">
-        <v>15</v>
-      </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4964,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4975,22 +5041,22 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4999,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5010,10 +5076,10 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>547</v>
@@ -5045,10 +5111,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>135</v>
@@ -5080,10 +5146,10 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>43</v>
@@ -5115,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>35</v>
@@ -5150,10 +5216,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E97">
         <v>42</v>
@@ -5185,10 +5251,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E98">
         <v>32</v>
@@ -5220,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99">
         <v>45</v>
@@ -5255,10 +5321,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100">
         <v>159</v>
@@ -5287,14 +5353,14 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" s="2">
         <v>1060</v>
@@ -5326,22 +5392,22 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="D102" t="s">
-        <v>15</v>
-      </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -5350,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -5361,22 +5427,22 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5385,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -5396,10 +5462,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>535</v>
@@ -5431,10 +5497,10 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>146</v>
@@ -5466,10 +5532,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>48</v>
@@ -5501,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>39</v>
@@ -5536,10 +5602,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -5571,10 +5637,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E109">
         <v>33</v>
@@ -5606,10 +5672,10 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E110">
         <v>53</v>
@@ -5641,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E111">
         <v>166</v>
@@ -5673,14 +5739,14 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" s="5">
         <v>3960</v>
@@ -5712,22 +5778,22 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="D113" t="s">
-        <v>15</v>
-      </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -5736,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -5747,22 +5813,22 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5771,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -5782,10 +5848,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>620</v>
@@ -5817,10 +5883,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E116">
         <v>121</v>
@@ -5852,10 +5918,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117">
         <v>157</v>
@@ -5887,10 +5953,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>130</v>
@@ -5922,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E119">
         <v>75</v>
@@ -5957,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120">
         <v>2857</v>
@@ -5992,22 +6058,22 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -6016,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -6027,22 +6093,22 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -6051,22 +6117,22 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123" s="5">
         <v>3940</v>
@@ -6098,22 +6164,22 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="D124" t="s">
-        <v>15</v>
-      </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -6122,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -6133,22 +6199,22 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -6157,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -6168,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>683</v>
@@ -6203,10 +6269,10 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E127">
         <v>107</v>
@@ -6238,10 +6304,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E128">
         <v>97</v>
@@ -6273,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>81</v>
@@ -6308,10 +6374,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E130">
         <v>108</v>
@@ -6343,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E131">
         <v>2864</v>
@@ -6378,22 +6444,22 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -6402,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -6413,22 +6479,22 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -6437,22 +6503,22 @@
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E134" s="5">
         <v>3957</v>
@@ -6484,22 +6550,22 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="D135" t="s">
-        <v>15</v>
-      </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -6508,10 +6574,10 @@
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -6519,22 +6585,22 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -6543,10 +6609,10 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -6554,10 +6620,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>683</v>
@@ -6589,10 +6655,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E138">
         <v>121</v>
@@ -6624,10 +6690,10 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139">
         <v>87</v>
@@ -6659,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -6694,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E141">
         <v>110</v>
@@ -6729,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E142">
         <v>2866</v>
@@ -6764,22 +6830,22 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6788,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -6799,22 +6865,22 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6823,22 +6889,22 @@
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145" s="5">
         <v>4016</v>
@@ -6870,22 +6936,22 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
         <v>14</v>
       </c>
-      <c r="D146" t="s">
-        <v>15</v>
-      </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6894,10 +6960,10 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -6905,22 +6971,22 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -6929,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -6940,10 +7006,10 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>705</v>
@@ -6975,10 +7041,10 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E149">
         <v>128</v>
@@ -7010,10 +7076,10 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E150">
         <v>119</v>
@@ -7045,10 +7111,10 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>94</v>
@@ -7080,10 +7146,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E152">
         <v>102</v>
@@ -7115,10 +7181,10 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E153">
         <v>2868</v>
@@ -7150,22 +7216,22 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -7174,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -7185,22 +7251,22 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -7209,22 +7275,22 @@
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" s="5">
         <v>3928</v>
@@ -7256,22 +7322,22 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
         <v>14</v>
       </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
       <c r="E157">
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -7280,10 +7346,10 @@
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -7291,22 +7357,22 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -7315,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -7326,10 +7392,10 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>703</v>
@@ -7361,10 +7427,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E160">
         <v>100</v>
@@ -7396,10 +7462,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E161">
         <v>69</v>
@@ -7431,10 +7497,10 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>78</v>
@@ -7466,10 +7532,10 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E163">
         <v>105</v>
@@ -7501,10 +7567,10 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E164">
         <v>2873</v>
@@ -7536,22 +7602,22 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -7560,10 +7626,10 @@
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -7571,22 +7637,22 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7595,22 +7661,22 @@
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B167" s="5">
         <v>0</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E167" s="5">
         <v>3884</v>
@@ -7642,22 +7708,22 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
         <v>14</v>
       </c>
-      <c r="D168" t="s">
-        <v>15</v>
-      </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7666,10 +7732,10 @@
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -7677,22 +7743,22 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -7701,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -7712,10 +7778,10 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>643</v>
@@ -7747,10 +7813,10 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E171">
         <v>102</v>
@@ -7782,10 +7848,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E172">
         <v>91</v>
@@ -7817,10 +7883,10 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E173">
         <v>75</v>
@@ -7852,10 +7918,10 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E174">
         <v>99</v>
@@ -7887,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E175">
         <v>2874</v>
@@ -7922,22 +7988,22 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -7946,10 +8012,10 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -7957,22 +8023,22 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -7981,22 +8047,22 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B178" s="5">
         <v>0</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E178" s="5">
         <v>3926</v>
@@ -8028,22 +8094,22 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="D179" t="s">
-        <v>15</v>
-      </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -8052,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -8063,22 +8129,22 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -8087,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="K180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -8098,10 +8164,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E181">
         <v>683</v>
@@ -8133,10 +8199,10 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E182">
         <v>106</v>
@@ -8168,10 +8234,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E183">
         <v>74</v>
@@ -8203,10 +8269,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <v>82</v>
@@ -8238,10 +8304,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E185">
         <v>117</v>
@@ -8273,10 +8339,10 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E186">
         <v>2864</v>
@@ -8308,22 +8374,22 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -8332,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -8343,22 +8409,22 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8367,22 +8433,22 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B189" s="5">
         <v>0</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E189" s="5">
         <v>3973</v>
@@ -8414,22 +8480,22 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
         <v>14</v>
       </c>
-      <c r="D190" t="s">
-        <v>15</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -8438,10 +8504,10 @@
         <v>0</v>
       </c>
       <c r="K190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -8449,22 +8515,22 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -8473,10 +8539,10 @@
         <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -8484,10 +8550,10 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E192">
         <v>681</v>
@@ -8519,10 +8585,10 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193">
         <v>120</v>
@@ -8554,10 +8620,10 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E194">
         <v>102</v>
@@ -8589,10 +8655,10 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>91</v>
@@ -8624,10 +8690,10 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E196">
         <v>115</v>
@@ -8659,10 +8725,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E197">
         <v>2864</v>
@@ -8694,22 +8760,22 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -8718,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -8729,22 +8795,22 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -8753,22 +8819,22 @@
         <v>0</v>
       </c>
       <c r="K199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B200" s="5">
         <v>0</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E200" s="5">
         <v>4030</v>
@@ -8800,22 +8866,22 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
         <v>14</v>
       </c>
-      <c r="D201" t="s">
-        <v>15</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -8824,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -8835,22 +8901,22 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -8859,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -8870,10 +8936,10 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E203">
         <v>729</v>
@@ -8905,10 +8971,10 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E204">
         <v>121</v>
@@ -8940,10 +9006,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E205">
         <v>114</v>
@@ -8975,10 +9041,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E206">
         <v>88</v>
@@ -9010,10 +9076,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E207">
         <v>107</v>
@@ -9045,10 +9111,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E208">
         <v>2871</v>
@@ -9080,22 +9146,22 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -9104,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -9115,22 +9181,22 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -9139,22 +9205,22 @@
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B211" s="5">
         <v>0</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E211" s="5">
         <v>3888</v>
@@ -9186,22 +9252,22 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" t="s">
         <v>14</v>
       </c>
-      <c r="D212" t="s">
-        <v>15</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -9210,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -9221,22 +9287,22 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -9245,10 +9311,10 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -9256,10 +9322,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E214">
         <v>647</v>
@@ -9291,10 +9357,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E215">
         <v>99</v>
@@ -9326,10 +9392,10 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E216">
         <v>83</v>
@@ -9361,10 +9427,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E217">
         <v>85</v>
@@ -9396,10 +9462,10 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D218" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E218">
         <v>113</v>
@@ -9431,10 +9497,10 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E219">
         <v>2861</v>
@@ -9466,22 +9532,22 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -9490,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -9501,22 +9567,22 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -9525,22 +9591,22 @@
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B222" s="7">
         <v>0</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E222" s="7">
         <v>1952</v>
@@ -9572,22 +9638,22 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
         <v>14</v>
       </c>
-      <c r="D223" t="s">
-        <v>15</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -9596,10 +9662,10 @@
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -9607,22 +9673,22 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -9631,10 +9697,10 @@
         <v>0</v>
       </c>
       <c r="K224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -9642,10 +9708,10 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E225">
         <v>950</v>
@@ -9677,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -9712,10 +9778,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E227">
         <v>13</v>
@@ -9747,10 +9813,10 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E228">
         <v>222</v>
@@ -9782,10 +9848,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E229">
         <v>69</v>
@@ -9817,10 +9883,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E230">
         <v>179</v>
@@ -9852,10 +9918,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E231">
         <v>353</v>
@@ -9887,10 +9953,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E232">
         <v>164</v>
@@ -9919,14 +9985,14 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B233" s="7">
         <v>0</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E233" s="7">
         <v>1778</v>
@@ -9958,22 +10024,22 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
         <v>14</v>
       </c>
-      <c r="D234" t="s">
-        <v>15</v>
-      </c>
       <c r="E234">
         <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -9982,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -9993,22 +10059,22 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -10017,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -10028,10 +10094,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E236">
         <v>878</v>
@@ -10063,10 +10129,10 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D237" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E237">
         <v>4</v>
@@ -10098,10 +10164,10 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D238" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E238">
         <v>3</v>
@@ -10133,10 +10199,10 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D239" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E239">
         <v>156</v>
@@ -10168,10 +10234,10 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E240">
         <v>62</v>
@@ -10203,10 +10269,10 @@
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E241">
         <v>169</v>
@@ -10238,10 +10304,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E242">
         <v>347</v>
@@ -10273,10 +10339,10 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E243">
         <v>159</v>
@@ -10305,14 +10371,14 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B244" s="7">
         <v>0</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E244" s="7">
         <v>1798</v>
@@ -10344,22 +10410,22 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
         <v>14</v>
       </c>
-      <c r="D245" t="s">
-        <v>15</v>
-      </c>
       <c r="E245">
         <v>0</v>
       </c>
       <c r="F245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -10368,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="K245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -10379,22 +10445,22 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
       <c r="F246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -10403,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="K246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -10414,10 +10480,10 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E247">
         <v>890</v>
@@ -10449,10 +10515,10 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E248">
         <v>7</v>
@@ -10484,10 +10550,10 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E249">
         <v>5</v>
@@ -10519,10 +10585,10 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E250">
         <v>151</v>
@@ -10554,10 +10620,10 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D251" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E251">
         <v>56</v>
@@ -10589,10 +10655,10 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E252">
         <v>155</v>
@@ -10624,10 +10690,10 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D253" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E253">
         <v>372</v>
@@ -10659,10 +10725,10 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E254">
         <v>162</v>
@@ -10691,14 +10757,14 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B255" s="7">
         <v>0</v>
       </c>
       <c r="C255" s="7"/>
       <c r="D255" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E255" s="7">
         <v>1868</v>
@@ -10730,22 +10796,22 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
         <v>14</v>
       </c>
-      <c r="D256" t="s">
-        <v>15</v>
-      </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -10754,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="K256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -10765,22 +10831,22 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E257">
         <v>0</v>
       </c>
       <c r="F257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -10789,10 +10855,10 @@
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -10800,10 +10866,10 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E258">
         <v>926</v>
@@ -10835,10 +10901,10 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E259">
         <v>2</v>
@@ -10870,10 +10936,10 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D260" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E260">
         <v>8</v>
@@ -10905,10 +10971,10 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E261">
         <v>167</v>
@@ -10940,10 +11006,10 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E262">
         <v>55</v>
@@ -10975,10 +11041,10 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E263">
         <v>193</v>
@@ -11010,10 +11076,10 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D264" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E264">
         <v>354</v>
@@ -11045,10 +11111,10 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E265">
         <v>163</v>
@@ -11077,14 +11143,14 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B266" s="7">
         <v>0</v>
       </c>
       <c r="C266" s="7"/>
       <c r="D266" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E266" s="7">
         <v>1860</v>
@@ -11116,22 +11182,22 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
         <v>14</v>
       </c>
-      <c r="D267" t="s">
-        <v>15</v>
-      </c>
       <c r="E267">
         <v>0</v>
       </c>
       <c r="F267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -11140,10 +11206,10 @@
         <v>0</v>
       </c>
       <c r="K267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -11151,22 +11217,22 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E268">
         <v>0</v>
       </c>
       <c r="F268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -11175,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="K268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -11186,10 +11252,10 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E269">
         <v>918</v>
@@ -11221,10 +11287,10 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D270" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E270">
         <v>2</v>
@@ -11256,10 +11322,10 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D271" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E271">
         <v>3</v>
@@ -11291,10 +11357,10 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D272" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E272">
         <v>159</v>
@@ -11326,10 +11392,10 @@
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D273" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E273">
         <v>66</v>
@@ -11361,10 +11427,10 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E274">
         <v>175</v>
@@ -11396,10 +11462,10 @@
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D275" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E275">
         <v>401</v>
@@ -11431,10 +11497,10 @@
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E276">
         <v>136</v>
@@ -11463,14 +11529,14 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B277" s="7">
         <v>0</v>
       </c>
       <c r="C277" s="7"/>
       <c r="D277" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E277" s="7">
         <v>1792</v>
@@ -11502,22 +11568,22 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
         <v>14</v>
       </c>
-      <c r="D278" t="s">
-        <v>15</v>
-      </c>
       <c r="E278">
         <v>0</v>
       </c>
       <c r="F278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I278">
         <v>0</v>
@@ -11526,10 +11592,10 @@
         <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -11537,22 +11603,22 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
       <c r="F279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -11561,10 +11627,10 @@
         <v>0</v>
       </c>
       <c r="K279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -11572,10 +11638,10 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E280">
         <v>886</v>
@@ -11607,22 +11673,22 @@
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D281" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E281">
         <v>0</v>
       </c>
       <c r="F281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -11631,10 +11697,10 @@
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -11642,10 +11708,10 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E282">
         <v>4</v>
@@ -11677,10 +11743,10 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D283" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E283">
         <v>138</v>
@@ -11712,10 +11778,10 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D284" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E284">
         <v>58</v>
@@ -11747,10 +11813,10 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D285" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E285">
         <v>211</v>
@@ -11782,10 +11848,10 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D286" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E286">
         <v>333</v>
@@ -11817,10 +11883,10 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E287">
         <v>162</v>
@@ -11849,14 +11915,14 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B288" s="7">
         <v>0</v>
       </c>
       <c r="C288" s="7"/>
       <c r="D288" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E288" s="7">
         <v>1860</v>
@@ -11888,22 +11954,22 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289" t="s">
         <v>14</v>
       </c>
-      <c r="D289" t="s">
-        <v>15</v>
-      </c>
       <c r="E289">
         <v>0</v>
       </c>
       <c r="F289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -11912,10 +11978,10 @@
         <v>0</v>
       </c>
       <c r="K289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -11923,22 +11989,22 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E290">
         <v>0</v>
       </c>
       <c r="F290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -11947,10 +12013,10 @@
         <v>0</v>
       </c>
       <c r="K290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -11958,10 +12024,10 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E291">
         <v>927</v>
@@ -11993,10 +12059,10 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D292" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -12028,10 +12094,10 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D293" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -12063,10 +12129,10 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D294" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E294">
         <v>115</v>
@@ -12098,10 +12164,10 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D295" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E295">
         <v>62</v>
@@ -12133,10 +12199,10 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D296" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E296">
         <v>237</v>
@@ -12168,10 +12234,10 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D297" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E297">
         <v>373</v>
@@ -12203,10 +12269,10 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E298">
         <v>143</v>
@@ -12235,14 +12301,14 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B299" s="7">
         <v>0</v>
       </c>
       <c r="C299" s="7"/>
       <c r="D299" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E299" s="7">
         <v>1955</v>
@@ -12274,22 +12340,22 @@
         <v>1</v>
       </c>
       <c r="C300" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" t="s">
         <v>14</v>
       </c>
-      <c r="D300" t="s">
-        <v>15</v>
-      </c>
       <c r="E300">
         <v>0</v>
       </c>
       <c r="F300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -12298,10 +12364,10 @@
         <v>0</v>
       </c>
       <c r="K300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -12309,22 +12375,22 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D301" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E301">
         <v>0</v>
       </c>
       <c r="F301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -12333,10 +12399,10 @@
         <v>0</v>
       </c>
       <c r="K301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -12344,10 +12410,10 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E302">
         <v>971</v>
@@ -12379,10 +12445,10 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D303" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E303">
         <v>2</v>
@@ -12414,10 +12480,10 @@
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D304" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E304">
         <v>2</v>
@@ -12449,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E305">
         <v>138</v>
@@ -12484,10 +12550,10 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D306" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E306">
         <v>75</v>
@@ -12519,10 +12585,10 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D307" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E307">
         <v>241</v>
@@ -12554,10 +12620,10 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D308" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E308">
         <v>395</v>
@@ -12589,10 +12655,10 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D309" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E309">
         <v>131</v>
@@ -12621,14 +12687,14 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B310" s="7">
         <v>0</v>
       </c>
       <c r="C310" s="7"/>
       <c r="D310" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E310" s="7">
         <v>1824</v>
@@ -12660,22 +12726,22 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D311" t="s">
         <v>14</v>
       </c>
-      <c r="D311" t="s">
-        <v>15</v>
-      </c>
       <c r="E311">
         <v>0</v>
       </c>
       <c r="F311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -12684,10 +12750,10 @@
         <v>0</v>
       </c>
       <c r="K311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
@@ -12695,22 +12761,22 @@
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D312" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E312">
         <v>0</v>
       </c>
       <c r="F312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -12719,10 +12785,10 @@
         <v>0</v>
       </c>
       <c r="K312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -12730,10 +12796,10 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D313" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E313">
         <v>898</v>
@@ -12765,10 +12831,10 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D314" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E314">
         <v>6</v>
@@ -12800,10 +12866,10 @@
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D315" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E315">
         <v>4</v>
@@ -12835,10 +12901,10 @@
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D316" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E316">
         <v>146</v>
@@ -12870,10 +12936,10 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D317" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E317">
         <v>78</v>
@@ -12905,10 +12971,10 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D318" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E318">
         <v>174</v>
@@ -12940,10 +13006,10 @@
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D319" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E319">
         <v>367</v>
@@ -12975,10 +13041,10 @@
         <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E320">
         <v>151</v>
@@ -13007,14 +13073,14 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B321" s="7">
         <v>0</v>
       </c>
       <c r="C321" s="7"/>
       <c r="D321" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E321" s="7">
         <v>1885</v>
@@ -13046,22 +13112,22 @@
         <v>1</v>
       </c>
       <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" t="s">
         <v>14</v>
       </c>
-      <c r="D322" t="s">
-        <v>15</v>
-      </c>
       <c r="E322">
         <v>0</v>
       </c>
       <c r="F322" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G322" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H322" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I322">
         <v>0</v>
@@ -13070,10 +13136,10 @@
         <v>0</v>
       </c>
       <c r="K322" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L322" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
@@ -13081,22 +13147,22 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D323" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E323">
         <v>0</v>
       </c>
       <c r="F323" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G323" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H323" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I323">
         <v>0</v>
@@ -13105,10 +13171,10 @@
         <v>0</v>
       </c>
       <c r="K323" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L323" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
@@ -13116,10 +13182,10 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D324" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E324">
         <v>936</v>
@@ -13151,10 +13217,10 @@
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D325" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E325">
         <v>2</v>
@@ -13186,10 +13252,10 @@
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D326" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E326">
         <v>7</v>
@@ -13221,10 +13287,10 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D327" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E327">
         <v>163</v>
@@ -13256,10 +13322,10 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D328" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E328">
         <v>53</v>
@@ -13291,10 +13357,10 @@
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D329" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E329">
         <v>197</v>
@@ -13326,10 +13392,10 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D330" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E330">
         <v>383</v>
@@ -13361,10 +13427,10 @@
         <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D331" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E331">
         <v>144</v>
@@ -13393,6 +13459,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L331" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -13402,1305 +13469,1338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="1025" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" customWidth="1"/>
+    <col min="20" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1216</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2209.61</v>
+      </c>
+      <c r="G2" s="10">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" s="10">
+        <v>54016</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.1045</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1216</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2209.61</v>
+      </c>
+      <c r="P2" s="16">
+        <v>3960</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>1144.8399999999999</v>
+      </c>
+      <c r="R2" s="14">
+        <v>1952</v>
+      </c>
+      <c r="S2" s="14">
+        <v>1542.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1216</v>
-      </c>
-      <c r="F2">
-        <v>2209.61</v>
-      </c>
-      <c r="G2">
+      <c r="E3" s="10">
+        <v>584</v>
+      </c>
+      <c r="F3" s="10">
+        <v>515.89</v>
+      </c>
+      <c r="G3" s="10">
         <v>56</v>
       </c>
-      <c r="H2">
-        <v>54016</v>
-      </c>
-      <c r="I2">
-        <v>0.1045</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0.92</v>
-      </c>
-      <c r="L2">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="N2">
-        <v>1216</v>
-      </c>
-      <c r="O2">
-        <v>2209.61</v>
-      </c>
-      <c r="P2">
+      <c r="H3" s="10">
+        <v>14356</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N3" s="10">
+        <v>584</v>
+      </c>
+      <c r="O3" s="10">
+        <v>515.89</v>
+      </c>
+      <c r="P3" s="16">
+        <v>3940</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>1152.17</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1778</v>
+      </c>
+      <c r="S3" s="14">
+        <v>1655.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1146</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2310.33</v>
+      </c>
+      <c r="G4" s="10">
+        <v>56</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43770</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1.673</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1146</v>
+      </c>
+      <c r="O4" s="10">
+        <v>2310.33</v>
+      </c>
+      <c r="P4" s="16">
+        <v>3957</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>1148.3499999999999</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1798</v>
+      </c>
+      <c r="S4" s="14">
+        <v>1636.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10">
+        <v>937</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2812</v>
+      </c>
+      <c r="G5" s="10">
+        <v>56</v>
+      </c>
+      <c r="H5" s="10">
+        <v>41551</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L5" s="10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N5" s="10">
+        <v>937</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2812</v>
+      </c>
+      <c r="P5" s="16">
+        <v>4016</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1133.5</v>
+      </c>
+      <c r="R5" s="14">
+        <v>1868</v>
+      </c>
+      <c r="S5" s="14">
+        <v>1584.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10">
+        <v>958</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2783.35</v>
+      </c>
+      <c r="G6" s="10">
+        <v>56</v>
+      </c>
+      <c r="H6" s="10">
+        <v>52616</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1.915</v>
+      </c>
+      <c r="N6" s="10">
+        <v>958</v>
+      </c>
+      <c r="O6" s="10">
+        <v>2783.35</v>
+      </c>
+      <c r="P6" s="16">
+        <v>3928</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>1155.3399999999999</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1860</v>
+      </c>
+      <c r="S6" s="14">
+        <v>1592.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1280</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2129.92</v>
+      </c>
+      <c r="G7" s="10">
+        <v>56</v>
+      </c>
+      <c r="H7" s="10">
+        <v>52596</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.1978</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1280</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2129.92</v>
+      </c>
+      <c r="P7" s="16">
+        <v>3884</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>1167.1099999999999</v>
+      </c>
+      <c r="R7" s="14">
+        <v>1792</v>
+      </c>
+      <c r="S7" s="14">
+        <v>1649.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1155</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2316.81</v>
+      </c>
+      <c r="G8" s="10">
+        <v>56</v>
+      </c>
+      <c r="H8" s="10">
+        <v>55536</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1.37</v>
+      </c>
+      <c r="N8" s="10">
+        <v>1155</v>
+      </c>
+      <c r="O8" s="10">
+        <v>2316.81</v>
+      </c>
+      <c r="P8" s="16">
+        <v>3926</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>1156.5999999999999</v>
+      </c>
+      <c r="R8" s="14">
+        <v>1860</v>
+      </c>
+      <c r="S8" s="14">
+        <v>1587.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1160</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2293.4899999999998</v>
+      </c>
+      <c r="G9" s="10">
+        <v>56</v>
+      </c>
+      <c r="H9" s="10">
+        <v>53142</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.2838</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="N9" s="10">
+        <v>1160</v>
+      </c>
+      <c r="O9" s="10">
+        <v>2293.4899999999998</v>
+      </c>
+      <c r="P9" s="16">
+        <v>3973</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1145.1300000000001</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1955</v>
+      </c>
+      <c r="S9" s="14">
+        <v>1526.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1038</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2539.75</v>
+      </c>
+      <c r="G10" s="10">
+        <v>56</v>
+      </c>
+      <c r="H10" s="10">
+        <v>51176</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.1628</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1.48</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1038</v>
+      </c>
+      <c r="O10" s="10">
+        <v>2539.75</v>
+      </c>
+      <c r="P10" s="16">
+        <v>4030</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>1130.29</v>
+      </c>
+      <c r="R10" s="14">
+        <v>1824</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1619.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1060</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2514.4499999999998</v>
+      </c>
+      <c r="G11" s="10">
+        <v>56</v>
+      </c>
+      <c r="H11" s="10">
+        <v>46529</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1060</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2514.4499999999998</v>
+      </c>
+      <c r="P11" s="16">
+        <v>3888</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>1166.1600000000001</v>
+      </c>
+      <c r="R11" s="14">
+        <v>1885</v>
+      </c>
+      <c r="S11" s="14">
+        <v>1569.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12">
         <v>3960</v>
       </c>
-      <c r="Q2">
+      <c r="F12" s="12">
         <v>1144.8399999999999</v>
       </c>
-      <c r="R2">
+      <c r="G12" s="12">
+        <v>54</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1.1389</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2.1659999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3940</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1152.17</v>
+      </c>
+      <c r="G13" s="12">
+        <v>54</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.5570999999999999</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3957</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1148.3499999999999</v>
+      </c>
+      <c r="G14" s="12">
+        <v>54</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.8962000000000001</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>4.24</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4016</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1133.5</v>
+      </c>
+      <c r="G15" s="12">
+        <v>46</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1.1781999999999999</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4.99</v>
+      </c>
+      <c r="L15" s="12">
+        <v>2.3010000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3928</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1155.3399999999999</v>
+      </c>
+      <c r="G16" s="12">
+        <v>54</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1.3093999999999999</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>4.97</v>
+      </c>
+      <c r="L16" s="12">
+        <v>2.194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3884</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1167.1099999999999</v>
+      </c>
+      <c r="G17" s="12">
+        <v>54</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1.3334999999999999</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>5.27</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2.0659999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3926</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1156.5999999999999</v>
+      </c>
+      <c r="G18" s="12">
+        <v>54</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>5.16</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1.0820000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3973</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1145.1300000000001</v>
+      </c>
+      <c r="G19" s="12">
+        <v>54</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1.2618</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>5.45</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1.2210000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4030</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1130.29</v>
+      </c>
+      <c r="G20" s="12">
+        <v>54</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1.1205000000000001</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="L20" s="12">
+        <v>2.4649999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3888</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1166.1600000000001</v>
+      </c>
+      <c r="G21" s="12">
+        <v>54</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1.8828</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="14">
         <v>1952</v>
       </c>
-      <c r="S2">
+      <c r="F22" s="14">
         <v>1542.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>584</v>
-      </c>
-      <c r="F3">
-        <v>515.89</v>
-      </c>
-      <c r="G3">
+      <c r="G22" s="14">
         <v>56</v>
       </c>
-      <c r="H3">
-        <v>14356</v>
-      </c>
-      <c r="I3">
-        <v>0.11169999999999999</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0.51</v>
-      </c>
-      <c r="L3">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="N3">
-        <v>584</v>
-      </c>
-      <c r="O3">
-        <v>515.89</v>
-      </c>
-      <c r="P3">
-        <v>3940</v>
-      </c>
-      <c r="Q3">
-        <v>1152.17</v>
-      </c>
-      <c r="R3">
+      <c r="H22" s="14">
+        <v>29256</v>
+      </c>
+      <c r="I22" s="14">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="L22" s="14">
+        <v>22.742000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="14">
         <v>1778</v>
       </c>
-      <c r="S3">
+      <c r="F23" s="14">
         <v>1655.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1146</v>
-      </c>
-      <c r="F4">
-        <v>2310.33</v>
-      </c>
-      <c r="G4">
+      <c r="G23" s="14">
         <v>56</v>
       </c>
-      <c r="H4">
-        <v>43770</v>
-      </c>
-      <c r="I4">
-        <v>0.22969999999999999</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2.9</v>
-      </c>
-      <c r="L4">
-        <v>1.673</v>
-      </c>
-      <c r="N4">
-        <v>1146</v>
-      </c>
-      <c r="O4">
-        <v>2310.33</v>
-      </c>
-      <c r="P4">
-        <v>3957</v>
-      </c>
-      <c r="Q4">
-        <v>1148.3499999999999</v>
-      </c>
-      <c r="R4">
+      <c r="H23" s="14">
+        <v>17576</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="L23" s="14">
+        <v>6.5490000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14">
         <v>1798</v>
       </c>
-      <c r="S4">
+      <c r="F24" s="14">
         <v>1636.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>937</v>
-      </c>
-      <c r="F5">
-        <v>2812</v>
-      </c>
-      <c r="G5">
+      <c r="G24" s="14">
         <v>56</v>
       </c>
-      <c r="H5">
-        <v>41551</v>
-      </c>
-      <c r="I5">
-        <v>0.28120000000000001</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="N5">
-        <v>937</v>
-      </c>
-      <c r="O5">
-        <v>2812</v>
-      </c>
-      <c r="P5">
-        <v>4016</v>
-      </c>
-      <c r="Q5">
-        <v>1133.5</v>
-      </c>
-      <c r="R5">
+      <c r="H24" s="14">
+        <v>23416</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="J24" s="15">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L24" s="14">
+        <v>5.782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="14">
         <v>1868</v>
       </c>
-      <c r="S5">
+      <c r="F25" s="14">
         <v>1584.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>958</v>
-      </c>
-      <c r="F6">
-        <v>2783.35</v>
-      </c>
-      <c r="G6">
+      <c r="G25" s="14">
         <v>56</v>
       </c>
-      <c r="H6">
-        <v>52616</v>
-      </c>
-      <c r="I6">
-        <v>0.14580000000000001</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L6">
-        <v>1.915</v>
-      </c>
-      <c r="N6">
-        <v>958</v>
-      </c>
-      <c r="O6">
-        <v>2783.35</v>
-      </c>
-      <c r="P6">
-        <v>3928</v>
-      </c>
-      <c r="Q6">
-        <v>1155.3399999999999</v>
-      </c>
-      <c r="R6">
+      <c r="H25" s="14">
+        <v>17576</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.1736</v>
+      </c>
+      <c r="J25" s="15">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1.34</v>
+      </c>
+      <c r="L25" s="14">
+        <v>5.5750000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="14">
         <v>1860</v>
       </c>
-      <c r="S6">
+      <c r="F26" s="14">
         <v>1592.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>1280</v>
-      </c>
-      <c r="F7">
-        <v>2129.92</v>
-      </c>
-      <c r="G7">
+      <c r="G26" s="14">
         <v>56</v>
       </c>
-      <c r="H7">
-        <v>52596</v>
-      </c>
-      <c r="I7">
-        <v>0.1978</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N7">
-        <v>1280</v>
-      </c>
-      <c r="O7">
-        <v>2129.92</v>
-      </c>
-      <c r="P7">
-        <v>3884</v>
-      </c>
-      <c r="Q7">
-        <v>1167.1099999999999</v>
-      </c>
-      <c r="R7">
+      <c r="H26" s="14">
+        <v>16116</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L26" s="14">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="14">
         <v>1792</v>
       </c>
-      <c r="S7">
+      <c r="F27" s="14">
         <v>1649.76</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>1155</v>
-      </c>
-      <c r="F8">
-        <v>2316.81</v>
-      </c>
-      <c r="G8">
+      <c r="G27" s="14">
         <v>56</v>
       </c>
-      <c r="H8">
-        <v>55536</v>
-      </c>
-      <c r="I8">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1.83</v>
-      </c>
-      <c r="L8">
-        <v>1.37</v>
-      </c>
-      <c r="N8">
-        <v>1155</v>
-      </c>
-      <c r="O8">
-        <v>2316.81</v>
-      </c>
-      <c r="P8">
-        <v>3926</v>
-      </c>
-      <c r="Q8">
-        <v>1156.5999999999999</v>
-      </c>
-      <c r="R8">
+      <c r="H27" s="14">
+        <v>31395</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.1449</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="L27" s="14">
+        <v>6.2910000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="14">
         <v>1860</v>
       </c>
-      <c r="S8">
+      <c r="F28" s="14">
         <v>1587.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>1160</v>
-      </c>
-      <c r="F9">
-        <v>2293.4899999999998</v>
-      </c>
-      <c r="G9">
+      <c r="G28" s="14">
         <v>56</v>
       </c>
-      <c r="H9">
-        <v>53142</v>
-      </c>
-      <c r="I9">
-        <v>0.2838</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1.57</v>
-      </c>
-      <c r="L9">
-        <v>0.04</v>
-      </c>
-      <c r="N9">
-        <v>1160</v>
-      </c>
-      <c r="O9">
-        <v>2293.4899999999998</v>
-      </c>
-      <c r="P9">
-        <v>3973</v>
-      </c>
-      <c r="Q9">
-        <v>1145.1300000000001</v>
-      </c>
-      <c r="R9">
+      <c r="H28" s="14">
+        <v>23416</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="L28" s="14">
+        <v>4.2460000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="14">
         <v>1955</v>
       </c>
-      <c r="S9">
+      <c r="F29" s="14">
         <v>1526.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>1038</v>
-      </c>
-      <c r="F10">
-        <v>2539.75</v>
-      </c>
-      <c r="G10">
+      <c r="G29" s="14">
         <v>56</v>
       </c>
-      <c r="H10">
-        <v>51176</v>
-      </c>
-      <c r="I10">
-        <v>0.1628</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1.48</v>
-      </c>
-      <c r="L10">
-        <v>0.04</v>
-      </c>
-      <c r="N10">
-        <v>1038</v>
-      </c>
-      <c r="O10">
-        <v>2539.75</v>
-      </c>
-      <c r="P10">
-        <v>4030</v>
-      </c>
-      <c r="Q10">
-        <v>1130.29</v>
-      </c>
-      <c r="R10">
+      <c r="H29" s="14">
+        <v>33636</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.1431</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1.55</v>
+      </c>
+      <c r="L29" s="14">
+        <v>8.1310000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="14">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="14">
         <v>1824</v>
       </c>
-      <c r="S10">
+      <c r="F30" s="14">
         <v>1619.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>1060</v>
-      </c>
-      <c r="F11">
-        <v>2514.4499999999998</v>
-      </c>
-      <c r="G11">
+      <c r="G30" s="14">
         <v>56</v>
       </c>
-      <c r="H11">
-        <v>46529</v>
-      </c>
-      <c r="I11">
-        <v>0.26469999999999999</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.94</v>
-      </c>
-      <c r="L11">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="N11">
-        <v>1060</v>
-      </c>
-      <c r="O11">
-        <v>2514.4499999999998</v>
-      </c>
-      <c r="P11">
-        <v>3888</v>
-      </c>
-      <c r="Q11">
-        <v>1166.1600000000001</v>
-      </c>
-      <c r="R11">
+      <c r="H30" s="14">
+        <v>16116</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="L30" s="14">
+        <v>6.2249999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="14">
         <v>1885</v>
       </c>
-      <c r="S11">
+      <c r="F31" s="14">
         <v>1569.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>3960</v>
-      </c>
-      <c r="F12">
-        <v>1144.8399999999999</v>
-      </c>
-      <c r="G12">
-        <v>54</v>
-      </c>
-      <c r="H12">
-        <v>1514</v>
-      </c>
-      <c r="I12">
-        <v>1.1389</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="L12">
-        <v>2.1659999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>3940</v>
-      </c>
-      <c r="F13">
-        <v>1152.17</v>
-      </c>
-      <c r="G13">
-        <v>54</v>
-      </c>
-      <c r="H13">
-        <v>1514</v>
-      </c>
-      <c r="I13">
-        <v>1.5570999999999999</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L13">
-        <v>2.7709999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>3957</v>
-      </c>
-      <c r="F14">
-        <v>1148.3499999999999</v>
-      </c>
-      <c r="G14">
-        <v>54</v>
-      </c>
-      <c r="H14">
-        <v>1514</v>
-      </c>
-      <c r="I14">
-        <v>1.8962000000000001</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>4.24</v>
-      </c>
-      <c r="L14">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>4016</v>
-      </c>
-      <c r="F15">
-        <v>1133.5</v>
-      </c>
-      <c r="G15">
-        <v>46</v>
-      </c>
-      <c r="H15">
-        <v>1514</v>
-      </c>
-      <c r="I15">
-        <v>1.1781999999999999</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>4.99</v>
-      </c>
-      <c r="L15">
-        <v>2.3010000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>3928</v>
-      </c>
-      <c r="F16">
-        <v>1155.3399999999999</v>
-      </c>
-      <c r="G16">
-        <v>54</v>
-      </c>
-      <c r="H16">
-        <v>1514</v>
-      </c>
-      <c r="I16">
-        <v>1.3093999999999999</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>4.97</v>
-      </c>
-      <c r="L16">
-        <v>2.194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>3884</v>
-      </c>
-      <c r="F17">
-        <v>1167.1099999999999</v>
-      </c>
-      <c r="G17">
-        <v>54</v>
-      </c>
-      <c r="H17">
-        <v>1514</v>
-      </c>
-      <c r="I17">
-        <v>1.3334999999999999</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>5.27</v>
-      </c>
-      <c r="L17">
-        <v>2.0659999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>3926</v>
-      </c>
-      <c r="F18">
-        <v>1156.5999999999999</v>
-      </c>
-      <c r="G18">
-        <v>54</v>
-      </c>
-      <c r="H18">
-        <v>1514</v>
-      </c>
-      <c r="I18">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>5.16</v>
-      </c>
-      <c r="L18">
-        <v>1.0820000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>3973</v>
-      </c>
-      <c r="F19">
-        <v>1145.1300000000001</v>
-      </c>
-      <c r="G19">
-        <v>54</v>
-      </c>
-      <c r="H19">
-        <v>1514</v>
-      </c>
-      <c r="I19">
-        <v>1.2618</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>5.45</v>
-      </c>
-      <c r="L19">
-        <v>1.2210000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>4030</v>
-      </c>
-      <c r="F20">
-        <v>1130.29</v>
-      </c>
-      <c r="G20">
-        <v>54</v>
-      </c>
-      <c r="H20">
-        <v>1514</v>
-      </c>
-      <c r="I20">
-        <v>1.1205000000000001</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>4.75</v>
-      </c>
-      <c r="L20">
-        <v>2.4649999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>3888</v>
-      </c>
-      <c r="F21">
-        <v>1166.1600000000001</v>
-      </c>
-      <c r="G21">
-        <v>54</v>
-      </c>
-      <c r="H21">
-        <v>1514</v>
-      </c>
-      <c r="I21">
-        <v>1.8828</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L21">
-        <v>1.133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>1952</v>
-      </c>
-      <c r="F22">
-        <v>1542.01</v>
-      </c>
-      <c r="G22">
+      <c r="G31" s="14">
         <v>56</v>
       </c>
-      <c r="H22">
-        <v>29256</v>
-      </c>
-      <c r="I22">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0.59</v>
-      </c>
-      <c r="L22">
-        <v>22.742000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>1778</v>
-      </c>
-      <c r="F23">
-        <v>1655.19</v>
-      </c>
-      <c r="G23">
-        <v>56</v>
-      </c>
-      <c r="H23">
-        <v>17576</v>
-      </c>
-      <c r="I23">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.73</v>
-      </c>
-      <c r="L23">
-        <v>6.5490000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>1798</v>
-      </c>
-      <c r="F24">
-        <v>1636.15</v>
-      </c>
-      <c r="G24">
-        <v>56</v>
-      </c>
-      <c r="H24">
-        <v>23416</v>
-      </c>
-      <c r="I24">
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L24">
-        <v>5.782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>1868</v>
-      </c>
-      <c r="F25">
-        <v>1584.09</v>
-      </c>
-      <c r="G25">
-        <v>56</v>
-      </c>
-      <c r="H25">
-        <v>17576</v>
-      </c>
-      <c r="I25">
-        <v>0.1736</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1.34</v>
-      </c>
-      <c r="L25">
-        <v>5.5750000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>1860</v>
-      </c>
-      <c r="F26">
-        <v>1592.42</v>
-      </c>
-      <c r="G26">
-        <v>56</v>
-      </c>
-      <c r="H26">
-        <v>16116</v>
-      </c>
-      <c r="I26">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L26">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>1792</v>
-      </c>
-      <c r="F27">
-        <v>1649.76</v>
-      </c>
-      <c r="G27">
-        <v>56</v>
-      </c>
-      <c r="H27">
-        <v>31395</v>
-      </c>
-      <c r="I27">
-        <v>0.1449</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1.2</v>
-      </c>
-      <c r="L27">
-        <v>6.2910000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>1860</v>
-      </c>
-      <c r="F28">
-        <v>1587.01</v>
-      </c>
-      <c r="G28">
-        <v>56</v>
-      </c>
-      <c r="H28">
-        <v>23416</v>
-      </c>
-      <c r="I28">
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1.27</v>
-      </c>
-      <c r="L28">
-        <v>4.2460000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>1955</v>
-      </c>
-      <c r="F29">
-        <v>1526.73</v>
-      </c>
-      <c r="G29">
-        <v>56</v>
-      </c>
-      <c r="H29">
-        <v>33636</v>
-      </c>
-      <c r="I29">
-        <v>0.1431</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1.55</v>
-      </c>
-      <c r="L29">
-        <v>8.1310000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>1824</v>
-      </c>
-      <c r="F30">
-        <v>1619.01</v>
-      </c>
-      <c r="G30">
-        <v>56</v>
-      </c>
-      <c r="H30">
-        <v>16116</v>
-      </c>
-      <c r="I30">
-        <v>0.16189999999999999</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1.2</v>
-      </c>
-      <c r="L30">
-        <v>6.2249999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>1885</v>
-      </c>
-      <c r="F31">
-        <v>1569.82</v>
-      </c>
-      <c r="G31">
-        <v>56</v>
-      </c>
-      <c r="H31">
+      <c r="H31" s="14">
         <v>24876</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="14">
         <v>0.17280000000000001</v>
       </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="15">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
         <v>1.49</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="14">
         <v>4.1710000000000003</v>
       </c>
     </row>
